--- a/xlsx/international-standard-classification-of-education-and-training-isced-education-programmes.xlsx
+++ b/xlsx/international-standard-classification-of-education-and-training-isced-education-programmes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t xml:space="preserve">Code</t>
   </si>
@@ -207,6 +207,15 @@
   </si>
   <si>
     <t xml:space="preserve">Doctoral or equivalent level, orientation unspecified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not elsewhere classified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
   </si>
 </sst>
 </file>
@@ -912,6 +921,23 @@
         <v>9</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/xlsx/international-standard-classification-of-education-and-training-isced-education-programmes.xlsx
+++ b/xlsx/international-standard-classification-of-education-and-training-isced-education-programmes.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+  <si>
+    <t xml:space="preserve">Version</t>
+  </si>
   <si>
     <t xml:space="preserve">Code</t>
   </si>
@@ -27,6 +30,9 @@
   </si>
   <si>
     <t xml:space="preserve">Definition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011</t>
   </si>
   <si>
     <t xml:space="preserve">01</t>
@@ -545,7 +551,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -563,379 +569,448 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
+      <c r="F3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
+      <c r="F7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
+      <c r="F9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
         <v>33</v>
       </c>
-      <c r="B11" t="s">
+      <c r="E11" t="s">
         <v>34</v>
       </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
+      <c r="F11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
         <v>39</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E13" t="s">
         <v>40</v>
       </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
+      <c r="F13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>46</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
         <v>45</v>
       </c>
-      <c r="B15" t="s">
+      <c r="E15" t="s">
         <v>46</v>
       </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
+      <c r="F15" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>46</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>54</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
         <v>53</v>
       </c>
-      <c r="B18" t="s">
+      <c r="E18" t="s">
         <v>54</v>
       </c>
-      <c r="C18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
+      <c r="F18" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>54</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>62</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" t="s">
         <v>61</v>
       </c>
-      <c r="B21" t="s">
+      <c r="E21" t="s">
         <v>62</v>
       </c>
-      <c r="C21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" t="s">
-        <v>9</v>
+      <c r="F21" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>62</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>68</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/international-standard-classification-of-education-and-training-isced-education-programmes.xlsx
+++ b/xlsx/international-standard-classification-of-education-and-training-isced-education-programmes.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Definition</t>
   </si>
   <si>
-    <t xml:space="preserve">2011</t>
+    <t xml:space="preserve">ISCED-P 2011</t>
   </si>
   <si>
     <t xml:space="preserve">01</t>
